--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P02_trail10 Features.xlsx
@@ -4858,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,29 +4869,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="21" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4912,115 +4910,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5037,72 +5025,66 @@
         <v>3.385472176481425e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.802676678949069</v>
+        <v>2.274424664938436e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.16029949884539</v>
+        <v>4.699862754484145e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.274424664938436e-07</v>
+        <v>-0.1054516143535826</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.699862754484145e-07</v>
+        <v>0.3267508915615023</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1054516143535826</v>
+        <v>0.1176067482142078</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3267508915615023</v>
+        <v>1.907869944943738</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1176067482142078</v>
+        <v>3.148523120165886</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.947403862276755</v>
+        <v>6.092654489361291</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.148523120165886</v>
+        <v>6.025073627277602e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.092654489361291</v>
+        <v>60475751739.71924</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.025073627277602e-19</v>
+        <v>1.974049159386009e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>60475751739.71924</v>
+        <v>2203.560148287782</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.974049159386009e-09</v>
+        <v>6.346955428451908e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2203.560148287782</v>
+        <v>10.73777912235352</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6.346955428451908e-05</v>
+        <v>1.235545566097964</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.73777912235352</v>
+        <v>0.007318033292543635</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.235545566097964</v>
+        <v>5.573699672884379</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007318033292543635</v>
+        <v>0.9617417180177262</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.573699672884379</v>
+        <v>1.000734092580554</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9617417180177262</v>
+        <v>367</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.000734092580554</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>367</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>6.389239491154679</v>
       </c>
     </row>
@@ -5117,72 +5099,66 @@
         <v>2.449195843750593e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.754145082928836</v>
+        <v>1.663790228325062e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.03490583216536</v>
+        <v>4.669564536125331e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.663790228325062e-07</v>
+        <v>-0.1041132397297398</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.669564536125331e-07</v>
+        <v>0.331247100086189</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1041132397297398</v>
+        <v>0.1202726600985762</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.331247100086189</v>
+        <v>1.91137222877065</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1202726600985762</v>
+        <v>3.41039009406351</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.948901818052699</v>
+        <v>5.838576775130829</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.41039009406351</v>
+        <v>6.560870537834343e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.838576775130829</v>
+        <v>56056113833.02937</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.560870537834343e-19</v>
+        <v>2.133942434103833e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>56056113833.02937</v>
+        <v>2061.614409178541</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.133942434103833e-09</v>
+        <v>6.636516757639194e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2061.614409178541</v>
+        <v>9.34994581406877</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.636516757639194e-05</v>
+        <v>1.293663284607095</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.34994581406877</v>
+        <v>0.005801741616349779</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.293663284607095</v>
+        <v>5.322403337559939</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005801741616349779</v>
+        <v>0.9615811047399198</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>5.322403337559939</v>
+        <v>0.9782755888399685</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9615811047399198</v>
+        <v>338</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.9782755888399685</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>338</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>5.375566541126668</v>
       </c>
     </row>
@@ -5197,72 +5173,66 @@
         <v>1.772635519119457e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.620662061250939</v>
+        <v>1.217035991903022e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>14.48870088189605</v>
+        <v>4.64801247369356e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.217035991903022e-07</v>
+        <v>-0.1018016047200143</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.64801247369356e-07</v>
+        <v>0.3358757921223243</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1018016047200143</v>
+        <v>0.1228781114748514</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3358757921223243</v>
+        <v>1.904654055245159</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1228781114748514</v>
+        <v>3.707735639827936</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.942906124731598</v>
+        <v>5.930399761514848</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.707735639827936</v>
+        <v>6.359273735495744e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.930399761514848</v>
+        <v>58393158464.46687</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.359273735495744e-19</v>
+        <v>2.046028445913526e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>58393158464.46687</v>
+        <v>2168.360328835237</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.046028445913526e-09</v>
+        <v>7.701357851788762e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2168.360328835237</v>
+        <v>6.896110334244467</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.701357851788762e-05</v>
+        <v>1.516858184719891</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.896110334244467</v>
+        <v>0.003662483750722348</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.516858184719891</v>
+        <v>4.985463910028503</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.003662483750722348</v>
+        <v>0.9604461797798018</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.985463910028503</v>
+        <v>0.9879683759618982</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9604461797798018</v>
+        <v>354</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9879683759618982</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>354</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.066497880912861</v>
       </c>
     </row>
@@ -5277,72 +5247,66 @@
         <v>1.290440110570296e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.317706706630472</v>
+        <v>8.902083470405081e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>13.06313951578479</v>
+        <v>4.632854508375489e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.902083470405081e-08</v>
+        <v>-0.09756771999858034</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.632854508375489e-07</v>
+        <v>0.3389272197282477</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09756771999858034</v>
+        <v>0.1240899778074655</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3389272197282477</v>
+        <v>1.899894888902439</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1240899778074655</v>
+        <v>3.423162234834442</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.94002736485113</v>
+        <v>5.682749628071399</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.423162234834442</v>
+        <v>6.92561610602266e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.682749628071399</v>
+        <v>53468883284.49528</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.92561610602266e-19</v>
+        <v>2.238204644092731e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>53468883284.49528</v>
+        <v>1979.979264560198</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.238204644092731e-09</v>
+        <v>7.893968125451769e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1979.979264560198</v>
+        <v>6.963491845151778</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>7.893968125451769e-05</v>
+        <v>1.357935151655968</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.963491845151778</v>
+        <v>0.00382780240636334</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.357935151655968</v>
+        <v>4.834938984281226</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00382780240636334</v>
+        <v>0.9608102617423637</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.834938984281226</v>
+        <v>0.9851940521616085</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9608102617423637</v>
+        <v>317</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9851940521616085</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>317</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.926232843828519</v>
       </c>
     </row>
@@ -5357,72 +5321,66 @@
         <v>9.56250189658687e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.732428440757037</v>
+        <v>6.51111864400847e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>10.18720356996592</v>
+        <v>4.622383970491196e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.51111864400847e-08</v>
+        <v>-0.08976115669985199</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.622383970491196e-07</v>
+        <v>0.3364112422476114</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.08976115669985199</v>
+        <v>0.1209362933186025</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3364112422476114</v>
+        <v>1.910628286297402</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1209362933186025</v>
+        <v>3.595713581648825</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.936694951232013</v>
+        <v>5.378657577905154</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.595713581648825</v>
+        <v>8.06606088675991e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.378657577905154</v>
+        <v>45878983157.20836</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.06606088675991e-19</v>
+        <v>2.622161786673565e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45878983157.20836</v>
+        <v>1697.809907601077</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.622161786673565e-09</v>
+        <v>8.157771531566047e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1697.809907601077</v>
+        <v>7.044115396657044</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.157771531566047e-05</v>
+        <v>1.323010226151873</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.044115396657044</v>
+        <v>0.004047850480197911</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.323010226151873</v>
+        <v>4.731262558032156</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004047850480197911</v>
+        <v>0.9614437046715346</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.731262558032156</v>
+        <v>1.001344002110005</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9614437046715346</v>
+        <v>304</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.001344002110005</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.818727811586283</v>
       </c>
     </row>
@@ -5437,72 +5395,66 @@
         <v>7.367766610352191e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.827406185300085</v>
+        <v>4.76503848242647e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5.86134158993622</v>
+        <v>4.615356298025065e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.76503848242647e-08</v>
+        <v>-0.07665981552897985</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.615356298025065e-07</v>
+        <v>0.3220659529749824</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07665981552897985</v>
+        <v>0.1093403485271192</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3220659529749824</v>
+        <v>1.906561053754425</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1093403485271192</v>
+        <v>3.316383571899466</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.936655892380955</v>
+        <v>5.188129342303088</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.316383571899466</v>
+        <v>8.669373218175726e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.188129342303088</v>
+        <v>43652239149.94655</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.669373218175726e-19</v>
+        <v>2.754007656014204e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>43652239149.94655</v>
+        <v>1651.964656687433</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.754007656014204e-09</v>
+        <v>8.288597652592593e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1651.964656687433</v>
+        <v>7.904644668406479</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.288597652592593e-05</v>
+        <v>1.215143986328376</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.904644668406479</v>
+        <v>0.005178998233526477</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.215143986328376</v>
+        <v>4.64429883695751</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005178998233526477</v>
+        <v>0.9594553228875077</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.64429883695751</v>
+        <v>1.041106513374281</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9594553228875077</v>
+        <v>281</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.041106513374281</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>281</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.042272470143057</v>
       </c>
     </row>
@@ -5517,72 +5469,66 @@
         <v>6.054321673354839e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8337761225118124</v>
+        <v>3.493116447289113e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.603367701467494</v>
+        <v>4.610836280119667e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.493116447289113e-08</v>
+        <v>-0.05816375036442369</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.610836280119667e-07</v>
+        <v>0.2908164436332666</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05816375036442369</v>
+        <v>0.08775094179903392</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2908164436332666</v>
+        <v>1.91197417539658</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.08775094179903392</v>
+        <v>3.22608990918552</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.937754239950053</v>
+        <v>5.126376427138581</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.22608990918552</v>
+        <v>8.879495738334031e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.126376427138581</v>
+        <v>42892748568.26682</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>8.879495738334031e-19</v>
+        <v>2.803627901820827e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>42892748568.26682</v>
+        <v>1633.638863759486</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.803627901820827e-09</v>
+        <v>8.535254110932772e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1633.638863759486</v>
+        <v>7.995303896109029</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>8.535254110932772e-05</v>
+        <v>1.289765126651301</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.995303896109029</v>
+        <v>0.005456151322903476</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.289765126651301</v>
+        <v>4.662569542784989</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.005456151322903476</v>
+        <v>0.9604155521639408</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.662569542784989</v>
+        <v>1.047456046622881</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9604155521639408</v>
+        <v>251</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.047456046622881</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>251</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.021708661754663</v>
       </c>
     </row>
@@ -5597,72 +5543,66 @@
         <v>5.373999284077497e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1513742475389362</v>
+        <v>2.568143999399944e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7583699052226187</v>
+        <v>4.608132949536025e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.568143999399944e-08</v>
+        <v>-0.03682159500937709</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.608132949536025e-07</v>
+        <v>0.2456925028769882</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03682159500937709</v>
+        <v>0.06158215295380472</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2456925028769882</v>
+        <v>1.9149661725091</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06158215295380472</v>
+        <v>3.308641897085659</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.939684874861835</v>
+        <v>5.186742735384194</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.308641897085659</v>
+        <v>8.674009121797471e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.186742735384194</v>
+        <v>41824399807.89702</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>8.674009121797471e-19</v>
+        <v>2.87308867596028e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>41824399807.89702</v>
+        <v>1517.327431351024</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.87308867596028e-09</v>
+        <v>9.025929915159575e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1517.327431351024</v>
+        <v>7.399935782809604</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.025929915159575e-05</v>
+        <v>1.565342394104979</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.399935782809604</v>
+        <v>0.004942513438174339</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.565342394104979</v>
+        <v>4.591968244889893</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.004942513438174339</v>
+        <v>0.9600504787175571</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.591968244889893</v>
+        <v>1.055233641788414</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9600504787175571</v>
+        <v>257</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.055233641788414</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>257</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.459166700240575</v>
       </c>
     </row>
@@ -6039,7 +5979,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.523251628377273</v>
+        <v>1.555761440299821</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.298924864291361</v>
@@ -6128,7 +6068,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.583513214859687</v>
+        <v>1.618065839898652</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.132705167791684</v>
@@ -6217,7 +6157,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.622479057068479</v>
+        <v>1.652574094933205</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.130186062239487</v>
@@ -6306,7 +6246,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.630227832389793</v>
+        <v>1.658385667833344</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.286389841436582</v>
@@ -6395,7 +6335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.64508682109074</v>
+        <v>1.675854385268664</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.234851640366347</v>
@@ -6484,7 +6424,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.667240488039333</v>
+        <v>1.684987465450393</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.148019787770821</v>
@@ -6573,7 +6513,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.702162578993696</v>
+        <v>1.726493607252868</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.513670438251894</v>
@@ -6662,7 +6602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.703166963779853</v>
+        <v>1.726692846882664</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.517922509042045</v>
@@ -6751,7 +6691,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.704591610119434</v>
+        <v>1.727040242527916</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.535076251832768</v>
@@ -6840,7 +6780,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.718994488102518</v>
+        <v>1.734611522737409</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.410641578274528</v>
@@ -6929,7 +6869,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.748668128810208</v>
+        <v>1.768616300028541</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.67265732775388</v>
@@ -7018,7 +6958,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.753421600540529</v>
+        <v>1.775596785955931</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.637150272942083</v>
@@ -7107,7 +7047,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.749499407943838</v>
+        <v>1.772453552310891</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.671642554219612</v>
@@ -7196,7 +7136,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.77994041358857</v>
+        <v>1.799435632742755</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.605314169877471</v>
@@ -7285,7 +7225,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.735060555647284</v>
+        <v>1.75489048525407</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.396644702757192</v>
@@ -7374,7 +7314,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.765523138353127</v>
+        <v>1.782379121707379</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.518579331656817</v>
@@ -7463,7 +7403,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.761021229656016</v>
+        <v>1.774178411471021</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.518234608623616</v>
@@ -7552,7 +7492,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.754061691021599</v>
+        <v>1.769008924450172</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.595151343829011</v>
@@ -7641,7 +7581,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.751924717093661</v>
+        <v>1.766641194776686</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.435396423981814</v>
@@ -7730,7 +7670,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.758899477823799</v>
+        <v>1.77537325217988</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.787521283374682</v>
@@ -7819,7 +7759,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.728893995706374</v>
+        <v>1.748105860762571</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.567765886519139</v>
@@ -7908,7 +7848,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.734775317483319</v>
+        <v>1.746331893650649</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.595942915420355</v>
@@ -7997,7 +7937,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.693432676836685</v>
+        <v>1.712463266850433</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.643223818757729</v>
@@ -8086,7 +8026,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.66290938656485</v>
+        <v>1.686255007255838</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.605489250158643</v>
@@ -8175,7 +8115,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.641322696566798</v>
+        <v>1.667714449480568</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.772742739271385</v>
@@ -8264,7 +8204,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.63246680844556</v>
+        <v>1.658048010214877</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.632372796434244</v>
@@ -8353,7 +8293,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.620828089742224</v>
+        <v>1.641126593792247</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.700865103593711</v>
@@ -8442,7 +8382,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.61491985561407</v>
+        <v>1.631141122150067</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.654185033536742</v>
@@ -8531,7 +8471,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.602691978624453</v>
+        <v>1.624407164916576</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.728533884991571</v>
@@ -8620,7 +8560,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.638873693074622</v>
+        <v>1.660706537400871</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.671762292427498</v>
@@ -8709,7 +8649,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63861025000962</v>
+        <v>1.658078318132674</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.727795246320567</v>
@@ -8798,7 +8738,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62204445831153</v>
+        <v>1.648368155528048</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.857548216334938</v>
@@ -8887,7 +8827,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.612501914234136</v>
+        <v>1.640741574467387</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.8289610606094</v>
@@ -8976,7 +8916,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603862177363389</v>
+        <v>1.638618338363053</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.535141628972345</v>
@@ -9065,7 +9005,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.572122849760538</v>
+        <v>1.605023676047142</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.540518351568443</v>
@@ -9154,7 +9094,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.556866658983738</v>
+        <v>1.593284991828661</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.622126122472741</v>
@@ -9243,7 +9183,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.564909394173114</v>
+        <v>1.602229672720858</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.522893475521907</v>
@@ -9332,7 +9272,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579279446945178</v>
+        <v>1.614405252595388</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.480661993415995</v>
@@ -9421,7 +9361,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.566552296218562</v>
+        <v>1.605025146028322</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.560428828575329</v>
@@ -9510,7 +9450,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.582965386488826</v>
+        <v>1.620240591740186</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.604512519305366</v>
@@ -9599,7 +9539,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.589496882890535</v>
+        <v>1.625960906634732</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.455227366154859</v>
@@ -9688,7 +9628,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.596091805172418</v>
+        <v>1.636734834595753</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.497799765742743</v>
@@ -9777,7 +9717,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.615403077689418</v>
+        <v>1.652144078105471</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.386944595403839</v>
@@ -9866,7 +9806,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.577376874347699</v>
+        <v>1.617229642899173</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.642640519114418</v>
@@ -9955,7 +9895,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.576352473131895</v>
+        <v>1.618039791683182</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.568949702111275</v>
@@ -10044,7 +9984,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.593170724222441</v>
+        <v>1.6285835658916</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.545532712854346</v>
@@ -10133,7 +10073,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.601983488874429</v>
+        <v>1.638857665395755</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.497639232472422</v>
@@ -10222,7 +10162,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.630191041956775</v>
+        <v>1.663068708166382</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.552617370746423</v>
@@ -10311,7 +10251,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622897710309612</v>
+        <v>1.655484968979313</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.520475943532368</v>
@@ -10400,7 +10340,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.689956011040609</v>
+        <v>1.715154468338107</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.210208556442868</v>
@@ -10489,7 +10429,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.704642053735445</v>
+        <v>1.730625320556905</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.637328763625166</v>
@@ -10578,7 +10518,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.657517030963233</v>
+        <v>1.687697916108777</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.414477367965595</v>
@@ -10667,7 +10607,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.663390060514284</v>
+        <v>1.690539951960444</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.28327476629926</v>
@@ -10953,7 +10893,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.610177088931891</v>
+        <v>1.583201294071922</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.765176409084014</v>
@@ -11042,7 +10982,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.643552898709373</v>
+        <v>1.611695337048682</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.791636251099624</v>
@@ -11131,7 +11071,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.620573051987405</v>
+        <v>1.592613517319384</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.845032638517737</v>
@@ -11220,7 +11160,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.614579929270076</v>
+        <v>1.590890335414064</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.615180102476909</v>
@@ -11309,7 +11249,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.618286419228577</v>
+        <v>1.592940469625747</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.725073608010459</v>
@@ -11398,7 +11338,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.623695231496962</v>
+        <v>1.598898879565339</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.737567095038871</v>
@@ -11487,7 +11427,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625639443372346</v>
+        <v>1.600915741034753</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.767990766668932</v>
@@ -11576,7 +11516,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.614739383334222</v>
+        <v>1.595498456843501</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.871928164229476</v>
@@ -11665,7 +11605,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601736345422002</v>
+        <v>1.582506249625081</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.793726009886883</v>
@@ -11754,7 +11694,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.599276501676347</v>
+        <v>1.58270834392883</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.577089232374569</v>
@@ -11843,7 +11783,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.59768895876302</v>
+        <v>1.590650659739303</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.640228994083511</v>
@@ -11932,7 +11872,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593296460862023</v>
+        <v>1.58344384799401</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.682510469419121</v>
@@ -12021,7 +11961,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.597182126871493</v>
+        <v>1.586113759470444</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.745106898174066</v>
@@ -12110,7 +12050,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.603052816430174</v>
+        <v>1.586241890177186</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.806116731787123</v>
@@ -12199,7 +12139,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.575139659575598</v>
+        <v>1.562075407120891</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.785626688903966</v>
@@ -12288,7 +12228,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.574217959034842</v>
+        <v>1.55710459369575</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.676120871326356</v>
@@ -12377,7 +12317,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.577963075230211</v>
+        <v>1.555773588927739</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.758867680338913</v>
@@ -12466,7 +12406,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.60285994637117</v>
+        <v>1.580759557879228</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.56349324875722</v>
@@ -12555,7 +12495,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.608341217231383</v>
+        <v>1.581023707173664</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.448002740142068</v>
@@ -12644,7 +12584,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.610573068073723</v>
+        <v>1.585186250814729</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.476865602200688</v>
@@ -12733,7 +12673,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.590606762741582</v>
+        <v>1.56736782047614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.487824990188349</v>
@@ -12822,7 +12762,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.594858625666784</v>
+        <v>1.568735741487391</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.508061959423735</v>
@@ -12911,7 +12851,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.608645146798873</v>
+        <v>1.578498560479324</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.516986540203658</v>
@@ -13000,7 +12940,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608794262869145</v>
+        <v>1.579702964615203</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.59079488679913</v>
@@ -13089,7 +13029,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.607453805237042</v>
+        <v>1.58686828950487</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.441903456204776</v>
@@ -13178,7 +13118,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.610370090635417</v>
+        <v>1.58664805357841</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.605677856563372</v>
@@ -13267,7 +13207,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.608944106503815</v>
+        <v>1.576660118845406</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.481101291577552</v>
@@ -13356,7 +13296,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.623076733212309</v>
+        <v>1.586395355750038</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.546624547379588</v>
@@ -13445,7 +13385,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62335055538468</v>
+        <v>1.592174296592209</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.481771209510502</v>
@@ -13534,7 +13474,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.664794708860835</v>
+        <v>1.625544900122417</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.169678197402658</v>
@@ -13623,7 +13563,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660487197740442</v>
+        <v>1.623231763073279</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.212146693996619</v>
@@ -13712,7 +13652,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.657555995832778</v>
+        <v>1.623964340858082</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.248306043752549</v>
@@ -13801,7 +13741,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.625375708117956</v>
+        <v>1.60210563568645</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.212603596853925</v>
@@ -13890,7 +13830,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.54830221554459</v>
+        <v>1.57410015203772</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.672143944306226</v>
@@ -13979,7 +13919,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.528660161957909</v>
+        <v>1.559574461923414</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.666108305352132</v>
@@ -14068,7 +14008,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530303352778543</v>
+        <v>1.561490410626728</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.670852552519694</v>
@@ -14157,7 +14097,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52293786609474</v>
+        <v>1.555698745370935</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.652729922033191</v>
@@ -14246,7 +14186,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.522579216866599</v>
+        <v>1.555244011964787</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.670187205168147</v>
@@ -14335,7 +14275,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514112050274176</v>
+        <v>1.545709319330894</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.681886094830652</v>
@@ -14424,7 +14364,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.515252616003898</v>
+        <v>1.543725912307217</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.670261365913217</v>
@@ -14513,7 +14453,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.512470775021167</v>
+        <v>1.540328283419062</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.674623759176826</v>
@@ -14602,7 +14542,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.508290319817046</v>
+        <v>1.542678076264683</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.671407808633142</v>
@@ -14691,7 +14631,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.509243545076103</v>
+        <v>1.540882875973067</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.679088952833064</v>
@@ -14780,7 +14720,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.496721797528544</v>
+        <v>1.529217321670458</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.673951156157544</v>
@@ -14869,7 +14809,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.494216302906561</v>
+        <v>1.52652750612792</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.667465344122923</v>
@@ -14958,7 +14898,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.497926813836158</v>
+        <v>1.528999455602748</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.670144384342878</v>
@@ -15047,7 +14987,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.495427598506198</v>
+        <v>1.524537535754649</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.673700355834974</v>
@@ -15136,7 +15076,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.515779926353536</v>
+        <v>1.538105523221763</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.618595094733991</v>
@@ -15225,7 +15165,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.538121358850647</v>
+        <v>1.523442900077404</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.698209589581269</v>
@@ -15314,7 +15254,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.561261785809318</v>
+        <v>1.538513801188394</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.21837298622988</v>
@@ -15403,7 +15343,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.566949481195324</v>
+        <v>1.539893772800707</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.414779305329276</v>
@@ -15492,7 +15432,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.543740671301223</v>
+        <v>1.523378314200037</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.659888705950293</v>
@@ -15581,7 +15521,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.554099947961211</v>
+        <v>1.534648838348643</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.666659014801231</v>
@@ -15867,7 +15807,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.787414824178669</v>
+        <v>1.750359164466043</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.072764620851515</v>
@@ -15956,7 +15896,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.798246777093123</v>
+        <v>1.760363964616467</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.047167914688769</v>
@@ -16045,7 +15985,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.782415111346456</v>
+        <v>1.748091652538218</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.767791336352673</v>
@@ -16134,7 +16074,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.775173902165753</v>
+        <v>1.733729324713376</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.372334370140068</v>
@@ -16223,7 +16163,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.777454377567174</v>
+        <v>1.739477825741369</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.893338386973185</v>
@@ -16312,7 +16252,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.784885690096405</v>
+        <v>1.742283405244849</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.637006959015434</v>
@@ -16401,7 +16341,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.778891430571554</v>
+        <v>1.742543697084818</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.692563531195448</v>
@@ -16490,7 +16430,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.77912083665872</v>
+        <v>1.747491427102946</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.571449190281503</v>
@@ -16579,7 +16519,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.762832444224041</v>
+        <v>1.737261675090665</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.690608935920273</v>
@@ -16668,7 +16608,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.759219101991325</v>
+        <v>1.736512791510983</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.805395950774236</v>
@@ -16757,7 +16697,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.766059027155815</v>
+        <v>1.744473971128128</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.79091214929985</v>
@@ -16846,7 +16786,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.764740022223226</v>
+        <v>1.740935147112437</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.553617792657128</v>
@@ -16935,7 +16875,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.775606693836196</v>
+        <v>1.751956578142215</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.872216538309571</v>
@@ -17024,7 +16964,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.776095435515451</v>
+        <v>1.753266584725568</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.751556860775253</v>
@@ -17113,7 +17053,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.756916687104857</v>
+        <v>1.740903392176461</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.420680435850658</v>
@@ -17202,7 +17142,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.756056010369137</v>
+        <v>1.74163506647142</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.849429336342535</v>
@@ -17291,7 +17231,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.758286683235439</v>
+        <v>1.741266586517479</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.675096808771084</v>
@@ -17380,7 +17320,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.774896757033205</v>
+        <v>1.75306790847748</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.72137843458315</v>
@@ -17469,7 +17409,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.783450159873302</v>
+        <v>1.763990147217672</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.672620960523238</v>
@@ -17558,7 +17498,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.784319612365793</v>
+        <v>1.767081269146495</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.66242770952863</v>
@@ -17647,7 +17587,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.774166144988316</v>
+        <v>1.759446754567368</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.897620417739661</v>
@@ -17736,7 +17676,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.780146259933334</v>
+        <v>1.759591675695885</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.061891982475095</v>
@@ -17825,7 +17765,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.780443706401709</v>
+        <v>1.760516848693864</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.73102791478615</v>
@@ -17914,7 +17854,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.791285699697726</v>
+        <v>1.767964237013306</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.573447005336188</v>
@@ -18003,7 +17943,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.792713066493895</v>
+        <v>1.76668711201828</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.894173330909613</v>
@@ -18092,7 +18032,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.789164150124764</v>
+        <v>1.766863624221225</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.939167431655119</v>
@@ -18181,7 +18121,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.792143632377851</v>
+        <v>1.758393849551215</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.185386029971471</v>
@@ -18270,7 +18210,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.792703872873908</v>
+        <v>1.75439937086502</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.180724376323949</v>
@@ -18359,7 +18299,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.790065227568126</v>
+        <v>1.752619635380178</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.11767548430459</v>
@@ -18448,7 +18388,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.811010293865126</v>
+        <v>1.764229694319454</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.248450020905453</v>
@@ -18537,7 +18477,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.815723559649861</v>
+        <v>1.766600131488702</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.662275974726743</v>
@@ -18626,7 +18566,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.808365376041166</v>
+        <v>1.76361247936619</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.025792351375588</v>
@@ -18715,7 +18655,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.797481048426884</v>
+        <v>1.755352077143449</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.522622769027791</v>
@@ -18804,7 +18744,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.8295883739512</v>
+        <v>1.797284843842578</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.050835002772652</v>
@@ -18893,7 +18833,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.820500570154808</v>
+        <v>1.789251291571682</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.071895707632981</v>
@@ -18982,7 +18922,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.809373889163157</v>
+        <v>1.778512308075013</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.104609271672624</v>
@@ -19071,7 +19011,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.808893826445259</v>
+        <v>1.78037876162901</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.116918097731793</v>
@@ -19160,7 +19100,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.811624336184895</v>
+        <v>1.78013136877545</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.118673758817768</v>
@@ -19249,7 +19189,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.801410121918078</v>
+        <v>1.774240624029315</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.079423358092143</v>
@@ -19338,7 +19278,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.802412788532605</v>
+        <v>1.778508126206804</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.105188706336719</v>
@@ -19427,7 +19367,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.797911757687357</v>
+        <v>1.773069062103055</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.082814919246504</v>
@@ -19516,7 +19456,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.791657327409551</v>
+        <v>1.776534621085662</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.104960312677017</v>
@@ -19605,7 +19545,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.794845924236503</v>
+        <v>1.780714936018423</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.091234355131814</v>
@@ -19694,7 +19634,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.785484074605926</v>
+        <v>1.771810790275907</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.082466743631105</v>
@@ -19783,7 +19723,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.785229922947469</v>
+        <v>1.775794359164325</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.096829355042387</v>
@@ -19872,7 +19812,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.787559087798615</v>
+        <v>1.7781824137941</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.085342612373383</v>
@@ -19961,7 +19901,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.795396905136583</v>
+        <v>1.782790235717473</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.095672729864196</v>
@@ -20050,7 +19990,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.802823694743566</v>
+        <v>1.790780261695073</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.06430421671815</v>
@@ -20139,7 +20079,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.761829435791235</v>
+        <v>1.749783355998836</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.343733210485107</v>
@@ -20228,7 +20168,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.77650088360441</v>
+        <v>1.759490286837538</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.999502671072942</v>
@@ -20317,7 +20257,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.794551132142841</v>
+        <v>1.777379654638628</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.535419594059938</v>
@@ -20406,7 +20346,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.778030552620835</v>
+        <v>1.763525676452282</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.882702596313749</v>
@@ -20495,7 +20435,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.78583421118069</v>
+        <v>1.769934360419892</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.45930681025163</v>
@@ -20781,7 +20721,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.769206517425556</v>
+        <v>1.722292374757779</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.817400238798984</v>
@@ -20870,7 +20810,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.7683556329572</v>
+        <v>1.729153829152157</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.674665535673286</v>
@@ -20959,7 +20899,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.768387436542066</v>
+        <v>1.729024758224031</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.492389953328874</v>
@@ -21048,7 +20988,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.762462537835592</v>
+        <v>1.727188299613327</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.703644613917048</v>
@@ -21137,7 +21077,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.758504023193588</v>
+        <v>1.722762842104553</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.907779656785785</v>
@@ -21226,7 +21166,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.753962440755122</v>
+        <v>1.709284134641937</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.472864928331367</v>
@@ -21315,7 +21255,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.611074589985668</v>
+        <v>1.596604960063847</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.952492707017497</v>
@@ -21404,7 +21344,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.608984869098642</v>
+        <v>1.589766127953568</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.939700272637524</v>
@@ -21493,7 +21433,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.604629730838698</v>
+        <v>1.585415508865789</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.925761640813659</v>
@@ -21582,7 +21522,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.602749125156347</v>
+        <v>1.588674390422214</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.919425038035228</v>
@@ -21671,7 +21611,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607654884667425</v>
+        <v>1.586098219032044</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.907017488931986</v>
@@ -21760,7 +21700,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602929076587925</v>
+        <v>1.579935360484846</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.916824550470007</v>
@@ -21849,7 +21789,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603164623318814</v>
+        <v>1.583162338416008</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.920147254895812</v>
@@ -21938,7 +21878,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.605771047492689</v>
+        <v>1.587817815472207</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.96121561624437</v>
@@ -22027,7 +21967,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.605812992902556</v>
+        <v>1.586787035813565</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.922503305898085</v>
@@ -22116,7 +22056,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.611258902594293</v>
+        <v>1.594966843369502</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.92512902047283</v>
@@ -22205,7 +22145,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.612811189372653</v>
+        <v>1.595559306557908</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.930351379989419</v>
@@ -22294,7 +22234,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.608550922904448</v>
+        <v>1.594581396292169</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.919296469295546</v>
@@ -22383,7 +22323,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.611733860889677</v>
+        <v>1.598782280394937</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.902543074338768</v>
@@ -22472,7 +22412,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.602465578461506</v>
+        <v>1.592875281843875</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.915064999510662</v>
@@ -22561,7 +22501,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.634135593379871</v>
+        <v>1.62172176225502</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.925602379470644</v>
@@ -22650,7 +22590,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.748630893927242</v>
+        <v>1.724685151939088</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.966296035584092</v>
@@ -22739,7 +22679,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.745631569352372</v>
+        <v>1.730447575638823</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.113100358211534</v>
@@ -22828,7 +22768,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.748434650111301</v>
+        <v>1.728407684133569</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.489730722879391</v>
@@ -22917,7 +22857,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.751351023590831</v>
+        <v>1.735351164656925</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.605934433258068</v>
@@ -23006,7 +22946,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.751565996397131</v>
+        <v>1.741420985379452</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.91024803951264</v>
@@ -23095,7 +23035,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.754736739640741</v>
+        <v>1.741756744461904</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.980102116430991</v>
@@ -23184,7 +23124,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.755355978303617</v>
+        <v>1.739640943233622</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.955249943985508</v>
@@ -23273,7 +23213,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.747690332870903</v>
+        <v>1.729870652896218</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.976412862710188</v>
@@ -23362,7 +23302,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.748954256627037</v>
+        <v>1.723140481678573</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.015282764788282</v>
@@ -23451,7 +23391,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.738157102811098</v>
+        <v>1.711661726671918</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.859703864502111</v>
@@ -23540,7 +23480,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.734409978052985</v>
+        <v>1.706699433892857</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.878662170440553</v>
@@ -23629,7 +23569,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.722627087423259</v>
+        <v>1.699146859527068</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.802244306743814</v>
@@ -23718,7 +23658,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.766768687445049</v>
+        <v>1.765814178861104</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.814395677476919</v>
@@ -23807,7 +23747,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.764139589291828</v>
+        <v>1.759802777620263</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.817805809195467</v>
@@ -23896,7 +23836,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.76226308371531</v>
+        <v>1.758736481774413</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.82015146853911</v>
@@ -23985,7 +23925,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.765666444672149</v>
+        <v>1.762165526732244</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.81551102450558</v>
@@ -24074,7 +24014,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.771416835600876</v>
+        <v>1.767381188612126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.823370948542477</v>
@@ -24163,7 +24103,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.775781804137214</v>
+        <v>1.770280432844912</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.836514587749871</v>
@@ -24252,7 +24192,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.779473933306898</v>
+        <v>1.773817138890682</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.82133651172191</v>
@@ -24341,7 +24281,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.778003578628869</v>
+        <v>1.776216895107549</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.815105599419887</v>
@@ -24430,7 +24370,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.779746403300945</v>
+        <v>1.779841603302744</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.827053992331151</v>
@@ -24519,7 +24459,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.784812171505669</v>
+        <v>1.784220019114005</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.820901333227728</v>
@@ -24608,7 +24548,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.77999753927611</v>
+        <v>1.783122166252626</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.828915407797592</v>
@@ -24697,7 +24637,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.773227772020112</v>
+        <v>1.779696626209215</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.811395456782459</v>
@@ -24786,7 +24726,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.774453885165652</v>
+        <v>1.782103374338077</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.825343446916077</v>
@@ -24875,7 +24815,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.776592939487071</v>
+        <v>1.781986023786372</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.834197989219472</v>
@@ -24964,7 +24904,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.795074037204175</v>
+        <v>1.791364424177192</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.767278864516992</v>
@@ -25053,7 +24993,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.75891971425238</v>
+        <v>1.735387079824043</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.316077113396415</v>
@@ -25142,7 +25082,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.769435272338751</v>
+        <v>1.742617202626281</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.782255710560498</v>
@@ -25231,7 +25171,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.769489610813416</v>
+        <v>1.743426022216565</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.67221817323184</v>
@@ -25320,7 +25260,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.751404758591265</v>
+        <v>1.727385022013589</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.319162086834486</v>
@@ -25409,7 +25349,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.750494634321391</v>
+        <v>1.724050477573273</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.024553235968497</v>
@@ -25695,7 +25635,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.45439348589278</v>
+        <v>1.441071784457057</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.423356974623708</v>
@@ -25784,7 +25724,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.491487673043791</v>
+        <v>1.47570346268031</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.253872826896717</v>
@@ -25873,7 +25813,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.500687795727914</v>
+        <v>1.47982699216992</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.276353679051815</v>
@@ -25962,7 +25902,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.493753392941462</v>
+        <v>1.476313997601233</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.404308328342335</v>
@@ -26051,7 +25991,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.487854244916559</v>
+        <v>1.47693154244177</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.423816990988492</v>
@@ -26140,7 +26080,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.493842811351171</v>
+        <v>1.483899193607177</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.375462355523915</v>
@@ -26229,7 +26169,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.509517783766656</v>
+        <v>1.502901860436011</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.424276278296467</v>
@@ -26318,7 +26258,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.509753837862981</v>
+        <v>1.504444581803172</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.469920286837967</v>
@@ -26407,7 +26347,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.516144550357311</v>
+        <v>1.508318250128101</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.246421969078935</v>
@@ -26496,7 +26436,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.529924787518268</v>
+        <v>1.518526488528312</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.279709647668125</v>
@@ -26585,7 +26525,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.563526865408686</v>
+        <v>1.554035217799362</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.457199731586698</v>
@@ -26674,7 +26614,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.56937897426892</v>
+        <v>1.559033588935543</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.677903515372071</v>
@@ -26763,7 +26703,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579164999022242</v>
+        <v>1.565255729090403</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.63998508012334</v>
@@ -26852,7 +26792,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.606988180375186</v>
+        <v>1.587031253450053</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.522002164310462</v>
@@ -26941,7 +26881,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568379990752926</v>
+        <v>1.552789142231831</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.431766086631891</v>
@@ -27030,7 +26970,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.576276936866414</v>
+        <v>1.562603993626915</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.600470732601972</v>
@@ -27119,7 +27059,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.568583597869868</v>
+        <v>1.555349081899209</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.420614199298033</v>
@@ -27208,7 +27148,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581884099647632</v>
+        <v>1.570277663383404</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.380584844057949</v>
@@ -27297,7 +27237,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.601601838504591</v>
+        <v>1.583946803969721</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.453995698370044</v>
@@ -27386,7 +27326,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.602374744640453</v>
+        <v>1.587076739303393</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.532357337686219</v>
@@ -27475,7 +27415,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.576583542807183</v>
+        <v>1.565193576240212</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.469868999625453</v>
@@ -27564,7 +27504,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.580453401160261</v>
+        <v>1.563532472158711</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.424278026180739</v>
@@ -27653,7 +27593,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.564478313966707</v>
+        <v>1.555488647239688</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.378583134417152</v>
@@ -27742,7 +27682,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.545331401346285</v>
+        <v>1.536956582371134</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.555385101126184</v>
@@ -27831,7 +27771,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.528576348186195</v>
+        <v>1.522315371827296</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.637266741265766</v>
@@ -27920,7 +27860,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.531652912919652</v>
+        <v>1.528927394987947</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.48710143921937</v>
@@ -28009,7 +27949,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.514253498033046</v>
+        <v>1.518608577495719</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.524968477795418</v>
@@ -28098,7 +28038,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.520223279011215</v>
+        <v>1.52136789578928</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.57430727203576</v>
@@ -28187,7 +28127,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.50956046755484</v>
+        <v>1.520814701712634</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.553941713496917</v>
@@ -28276,7 +28216,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.546757767205424</v>
+        <v>1.556553886028185</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.603659801125497</v>
@@ -28365,7 +28305,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.552689826688727</v>
+        <v>1.556392579195783</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.596945012002938</v>
@@ -28454,7 +28394,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.551184634905692</v>
+        <v>1.558853906776311</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.737610033051692</v>
@@ -28543,7 +28483,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530519972638421</v>
+        <v>1.531160715700734</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.884481729773451</v>
@@ -28632,7 +28572,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.487366552764654</v>
+        <v>1.51256198704763</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.702154980019173</v>
@@ -28721,7 +28661,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.472665199952427</v>
+        <v>1.495358232446882</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.716553827897727</v>
@@ -28810,7 +28750,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.4669555228135</v>
+        <v>1.489597866221098</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.716948316371956</v>
@@ -28899,7 +28839,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.469891153813828</v>
+        <v>1.490335131082903</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.76089263934079</v>
@@ -28988,7 +28928,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.479013424901733</v>
+        <v>1.494784203600444</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.720580616441164</v>
@@ -29077,7 +29017,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.476388710923248</v>
+        <v>1.49522653692287</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.715993897443939</v>
@@ -29166,7 +29106,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.486039544541863</v>
+        <v>1.504604609737267</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.710704115135658</v>
@@ -29255,7 +29195,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.481439093808728</v>
+        <v>1.497998591132795</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.700650581954284</v>
@@ -29344,7 +29284,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.486314072951807</v>
+        <v>1.501212422350455</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.709501625955276</v>
@@ -29433,7 +29373,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.494367848445592</v>
+        <v>1.506953506510047</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.692576790540254</v>
@@ -29522,7 +29462,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.477536146455307</v>
+        <v>1.489367047652275</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.707193511103513</v>
@@ -29611,7 +29551,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.473208958171754</v>
+        <v>1.486358816694203</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.70160976846866</v>
@@ -29700,7 +29640,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.482771597331793</v>
+        <v>1.496491178072891</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.696759226254726</v>
@@ -29789,7 +29729,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.477779577259385</v>
+        <v>1.49032551576916</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.692067504262646</v>
@@ -29878,7 +29818,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.533854618874877</v>
+        <v>1.536852077255893</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.553674515656256</v>
@@ -29967,7 +29907,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.535621416497646</v>
+        <v>1.526796688106098</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.351347956813433</v>
@@ -30056,7 +29996,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.56927486757287</v>
+        <v>1.553278471432521</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.219200230745356</v>
@@ -30145,7 +30085,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.559543285829617</v>
+        <v>1.549982153297755</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.498182762181646</v>
@@ -30234,7 +30174,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.529796102056029</v>
+        <v>1.525028220100148</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.690496363194381</v>
@@ -30323,7 +30263,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.542024003022874</v>
+        <v>1.540728042861429</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.426910393352918</v>
@@ -30609,7 +30549,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.505634582145831</v>
+        <v>1.500102590452154</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.33483143023002</v>
@@ -30698,7 +30638,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.547310521650718</v>
+        <v>1.537449891464816</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.176077342524637</v>
@@ -30787,7 +30727,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576280514960955</v>
+        <v>1.558329953878897</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.187140374061361</v>
@@ -30876,7 +30816,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.578589541130288</v>
+        <v>1.561871878449477</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.359396797844979</v>
@@ -30965,7 +30905,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58542783965026</v>
+        <v>1.574038667308493</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.277370086595536</v>
@@ -31054,7 +30994,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600698745722234</v>
+        <v>1.581045602696057</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.176661276780761</v>
@@ -31143,7 +31083,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.620147462726086</v>
+        <v>1.604327106778629</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.492876754840981</v>
@@ -31232,7 +31172,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620450602799135</v>
+        <v>1.602744146835222</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.575794698075662</v>
@@ -31321,7 +31261,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.614648799125115</v>
+        <v>1.593954718086184</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.492513419141159</v>
@@ -31410,7 +31350,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622162745421013</v>
+        <v>1.595148839707194</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.309523862823135</v>
@@ -31499,7 +31439,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.646212888492938</v>
+        <v>1.623635606624285</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.481248715491607</v>
@@ -31588,7 +31528,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.653720177896446</v>
+        <v>1.62813155411398</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.702254618712752</v>
@@ -31677,7 +31617,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.655348945240968</v>
+        <v>1.626255009543417</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.619915811919259</v>
@@ -31766,7 +31706,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.683669701373157</v>
+        <v>1.647245705510659</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.583851731976271</v>
@@ -31855,7 +31795,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.646670096725593</v>
+        <v>1.619525549660856</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.374896594062728</v>
@@ -31944,7 +31884,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.674732513760349</v>
+        <v>1.643528461325074</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.440403538481405</v>
@@ -32033,7 +31973,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678585692527379</v>
+        <v>1.655399960770746</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.507784989732058</v>
@@ -32122,7 +32062,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.678606036098114</v>
+        <v>1.656772126324828</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.452929654383054</v>
@@ -32211,7 +32151,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.690402371874168</v>
+        <v>1.665049926976174</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.460781417740566</v>
@@ -32300,7 +32240,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.693321401587139</v>
+        <v>1.668348145072754</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.589864563220163</v>
@@ -32389,7 +32329,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664015453715482</v>
+        <v>1.644759000773391</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.513598144974052</v>
@@ -32478,7 +32418,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.65346708577808</v>
+        <v>1.635976913670142</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.50833050157832</v>
@@ -32567,7 +32507,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586765984739306</v>
+        <v>1.581229903671408</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.54981098406653</v>
@@ -32656,7 +32596,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.564702482098184</v>
+        <v>1.559814008326635</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.571840413176823</v>
@@ -32745,7 +32685,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.539471304398487</v>
+        <v>1.542302451725538</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.538014865067603</v>
@@ -32834,7 +32774,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.53895054916413</v>
+        <v>1.546099848626066</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.526938617572875</v>
@@ -32923,7 +32863,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.519993974984231</v>
+        <v>1.53035292881635</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.605913144629784</v>
@@ -33012,7 +32952,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.51947132534172</v>
+        <v>1.524576509790828</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.658080677107425</v>
@@ -33101,7 +33041,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.514655161477876</v>
+        <v>1.528396857387781</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.658287259159018</v>
@@ -33190,7 +33130,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.542902250005749</v>
+        <v>1.557372775251429</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.636236831340608</v>
@@ -33279,7 +33219,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.549753403427048</v>
+        <v>1.562161726738612</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.622942197045696</v>
@@ -33368,7 +33308,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534570313343628</v>
+        <v>1.547390231093734</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.680275507317622</v>
@@ -33457,7 +33397,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.531377437312863</v>
+        <v>1.541950796512731</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.345061147991136</v>
@@ -33546,7 +33486,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.520106376959931</v>
+        <v>1.535918498455646</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.929894362460451</v>
@@ -33635,7 +33575,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.500764662838128</v>
+        <v>1.516980629386744</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.953179140161783</v>
@@ -33724,7 +33664,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.498120359411216</v>
+        <v>1.512957007530626</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.963350131536081</v>
@@ -33813,7 +33753,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.510934574737003</v>
+        <v>1.522128879510084</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.074863897047444</v>
@@ -33902,7 +33842,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.540860977589146</v>
+        <v>1.54995243059622</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.902108349903536</v>
@@ -33991,7 +33931,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.54172358734302</v>
+        <v>1.553736632549548</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.960126557863074</v>
@@ -34080,7 +34020,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.56215249460083</v>
+        <v>1.571359667666681</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.927020404190612</v>
@@ -34169,7 +34109,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567039575005315</v>
+        <v>1.572693256979353</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.90305572687953</v>
@@ -34258,7 +34198,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581978409190904</v>
+        <v>1.584910463536458</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.911529894453771</v>
@@ -34347,7 +34287,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.595739974901533</v>
+        <v>1.59744298416029</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.872507026056276</v>
@@ -34436,7 +34376,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565966142040906</v>
+        <v>1.567969703549682</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.918975891904745</v>
@@ -34525,7 +34465,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.565436052862464</v>
+        <v>1.570260098183711</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.895606291580414</v>
@@ -34614,7 +34554,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.580181453031643</v>
+        <v>1.584280622782456</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.903702608676421</v>
@@ -34703,7 +34643,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.586929098151147</v>
+        <v>1.590834392064174</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.903577704267524</v>
@@ -34792,7 +34732,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.62481683969806</v>
+        <v>1.622448851431981</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.738212698509862</v>
@@ -34881,7 +34821,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.63165322540557</v>
+        <v>1.62160357264941</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.312820167884476</v>
@@ -34970,7 +34910,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.682497076353905</v>
+        <v>1.663357036256784</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.321214869427254</v>
@@ -35059,7 +34999,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.685289542101961</v>
+        <v>1.670881119331522</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.53248651860697</v>
@@ -35148,7 +35088,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.648420216803092</v>
+        <v>1.636254953196483</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.457757198460661</v>
@@ -35237,7 +35177,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.659766775820086</v>
+        <v>1.648502692036331</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.344827168159493</v>
